--- a/tut05/output/0401CS07.xlsx
+++ b/tut05/output/0401CS07.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.102040816326531</v>
+        <v>8.1</v>
       </c>
       <c r="C6" t="n">
-        <v>7.909090909090909</v>
+        <v>7.91</v>
       </c>
       <c r="D6" t="n">
-        <v>8.744186046511627</v>
+        <v>8.74</v>
       </c>
       <c r="E6" t="n">
-        <v>8.574468085106384</v>
+        <v>8.57</v>
       </c>
       <c r="F6" t="n">
-        <v>8.380952380952381</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.317073170731707</v>
+        <v>9.32</v>
       </c>
       <c r="I6" t="n">
         <v>9.25</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.102040816326531</v>
+        <v>8.1</v>
       </c>
       <c r="C8" t="n">
-        <v>8.010752688172044</v>
+        <v>8.01</v>
       </c>
       <c r="D8" t="n">
-        <v>8.242647058823529</v>
+        <v>8.24</v>
       </c>
       <c r="E8" t="n">
-        <v>8.327868852459016</v>
+        <v>8.33</v>
       </c>
       <c r="F8" t="n">
-        <v>8.337777777777777</v>
+        <v>8.34</v>
       </c>
       <c r="G8" t="n">
-        <v>8.316981132075473</v>
+        <v>8.32</v>
       </c>
       <c r="H8" t="n">
-        <v>8.450980392156863</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.543352601156069</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
   </sheetData>
